--- a/Code/Results/Cases/Case_5_171/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_171/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.36992046743798</v>
+        <v>19.54007855928535</v>
       </c>
       <c r="C2">
-        <v>7.623282450162694</v>
+        <v>6.403381025117031</v>
       </c>
       <c r="D2">
-        <v>2.421035319945599</v>
+        <v>4.736560110515995</v>
       </c>
       <c r="E2">
-        <v>6.029092249905058</v>
+        <v>10.65486524604365</v>
       </c>
       <c r="F2">
-        <v>36.04841993570354</v>
+        <v>50.32538137073504</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>24.75424858557977</v>
+        <v>36.22301452445404</v>
       </c>
       <c r="J2">
-        <v>5.792194099415888</v>
+        <v>9.964561230390371</v>
       </c>
       <c r="K2">
-        <v>13.85499217857286</v>
+        <v>17.35877020247761</v>
       </c>
       <c r="L2">
-        <v>7.377459931689584</v>
+        <v>12.05623818284223</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.35438223093848</v>
+        <v>24.47797805936214</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.54472218672543</v>
+        <v>19.42173598948603</v>
       </c>
       <c r="C3">
-        <v>7.093587719175636</v>
+        <v>6.274015419379142</v>
       </c>
       <c r="D3">
-        <v>2.340614712136126</v>
+        <v>4.73528851569362</v>
       </c>
       <c r="E3">
-        <v>6.009562173379815</v>
+        <v>10.67026975130614</v>
       </c>
       <c r="F3">
-        <v>35.5475312126655</v>
+        <v>50.34835583333911</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>24.64601305158052</v>
+        <v>36.27675806777497</v>
       </c>
       <c r="J3">
-        <v>5.828479530188694</v>
+        <v>9.981215834887967</v>
       </c>
       <c r="K3">
-        <v>13.21701232409069</v>
+        <v>17.28004288095998</v>
       </c>
       <c r="L3">
-        <v>7.268051211028427</v>
+        <v>12.06628163864889</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.54011947311535</v>
+        <v>24.53379105072665</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.02537666591209</v>
+        <v>19.35328567392257</v>
       </c>
       <c r="C4">
-        <v>6.787706396088547</v>
+        <v>6.195227297311513</v>
       </c>
       <c r="D4">
-        <v>2.290557476982673</v>
+        <v>4.735032054012545</v>
       </c>
       <c r="E4">
-        <v>5.999556102105482</v>
+        <v>10.68076458328744</v>
       </c>
       <c r="F4">
-        <v>35.26118402275517</v>
+        <v>50.37157890864938</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>24.59424675152995</v>
+        <v>36.315312857768</v>
       </c>
       <c r="J4">
-        <v>5.851930495072772</v>
+        <v>9.992088785473467</v>
       </c>
       <c r="K4">
-        <v>12.81821193100467</v>
+        <v>17.23540360998681</v>
       </c>
       <c r="L4">
-        <v>7.203726922288375</v>
+        <v>12.07415306756759</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.65821597035561</v>
+        <v>24.56999178885823</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.81082054826215</v>
+        <v>19.32647562647824</v>
       </c>
       <c r="C5">
-        <v>6.660307996294186</v>
+        <v>6.163331557302289</v>
       </c>
       <c r="D5">
-        <v>2.270015770290387</v>
+        <v>4.73506010751039</v>
       </c>
       <c r="E5">
-        <v>5.995972492415675</v>
+        <v>10.68530240393084</v>
       </c>
       <c r="F5">
-        <v>35.14975839614227</v>
+        <v>50.3833341516757</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>24.5767250198159</v>
+        <v>36.33242004420122</v>
       </c>
       <c r="J5">
-        <v>5.861782111934374</v>
+        <v>9.996682704421696</v>
       </c>
       <c r="K5">
-        <v>12.65413765510246</v>
+        <v>17.21815753813513</v>
       </c>
       <c r="L5">
-        <v>7.17824205555952</v>
+        <v>12.07778988433805</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.70735691387285</v>
+        <v>24.58523027390848</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.77502613841293</v>
+        <v>19.3220899991836</v>
       </c>
       <c r="C6">
-        <v>6.638990172783428</v>
+        <v>6.15804949284908</v>
       </c>
       <c r="D6">
-        <v>2.266597061185156</v>
+        <v>4.735072792810843</v>
       </c>
       <c r="E6">
-        <v>5.995407110775453</v>
+        <v>10.6860716887607</v>
       </c>
       <c r="F6">
-        <v>35.13157195922026</v>
+        <v>50.38542447127992</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>24.57402784037671</v>
+        <v>36.3353449398677</v>
       </c>
       <c r="J6">
-        <v>5.863435809622207</v>
+        <v>9.997455384599574</v>
       </c>
       <c r="K6">
-        <v>12.62680610340178</v>
+        <v>17.21535130294266</v>
       </c>
       <c r="L6">
-        <v>7.174054550614207</v>
+        <v>12.07841970682214</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.71557799694075</v>
+        <v>24.58779001148926</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.02249451615236</v>
+        <v>19.35291968374514</v>
       </c>
       <c r="C7">
-        <v>6.78599927342032</v>
+        <v>6.194796220061314</v>
       </c>
       <c r="D7">
-        <v>2.290280984706858</v>
+        <v>4.735031894662532</v>
       </c>
       <c r="E7">
-        <v>5.999505779474142</v>
+        <v>10.68082472413887</v>
       </c>
       <c r="F7">
-        <v>35.25966008424103</v>
+        <v>50.37172816692188</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>24.59399613826425</v>
+        <v>36.31553792168611</v>
       </c>
       <c r="J7">
-        <v>5.852062161548747</v>
+        <v>9.99215007971301</v>
       </c>
       <c r="K7">
-        <v>12.81600516906026</v>
+        <v>17.23516717981099</v>
       </c>
       <c r="L7">
-        <v>7.203380264740063</v>
+        <v>12.0742003767803</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.65887459352929</v>
+        <v>24.5701953300658</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.08816784341818</v>
+        <v>19.4984151000871</v>
       </c>
       <c r="C8">
-        <v>7.439823229275475</v>
+        <v>6.358671809577812</v>
       </c>
       <c r="D8">
-        <v>2.393462904698151</v>
+        <v>4.736013288292685</v>
       </c>
       <c r="E8">
-        <v>6.021943036489994</v>
+        <v>10.6599619036836</v>
       </c>
       <c r="F8">
-        <v>35.87127525277882</v>
+        <v>50.33141054328737</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>24.71380742225099</v>
+        <v>36.24039140489471</v>
       </c>
       <c r="J8">
-        <v>5.804462481063291</v>
+        <v>9.970169715456919</v>
       </c>
       <c r="K8">
-        <v>13.63660761612329</v>
+        <v>17.33086623704553</v>
       </c>
       <c r="L8">
-        <v>7.339150146000557</v>
+        <v>12.05934766689085</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.41758067443365</v>
+        <v>24.49682197577688</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.068018607594</v>
+        <v>19.81598962260661</v>
       </c>
       <c r="C9">
-        <v>8.699748420338835</v>
+        <v>6.682997188148645</v>
       </c>
       <c r="D9">
-        <v>2.589346864390105</v>
+        <v>4.742065288817394</v>
       </c>
       <c r="E9">
-        <v>6.081932129675029</v>
+        <v>10.62725225823489</v>
       </c>
       <c r="F9">
-        <v>37.24155240046102</v>
+        <v>50.32469321505917</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>25.07072091925212</v>
+        <v>36.1371680047985</v>
       </c>
       <c r="J9">
-        <v>5.720392265819804</v>
+        <v>9.932180642495519</v>
       </c>
       <c r="K9">
-        <v>15.18166822781933</v>
+        <v>17.54719325208677</v>
       </c>
       <c r="L9">
-        <v>7.627550480710823</v>
+        <v>12.04372424308827</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.97679590954131</v>
+        <v>24.3682272436387</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.44606294542383</v>
+        <v>20.06731244532049</v>
       </c>
       <c r="C10">
-        <v>9.546571750803654</v>
+        <v>6.920312362171358</v>
       </c>
       <c r="D10">
-        <v>2.728107449839665</v>
+        <v>4.748982927110498</v>
       </c>
       <c r="E10">
-        <v>6.136080339989799</v>
+        <v>10.60819232959844</v>
       </c>
       <c r="F10">
-        <v>38.35591884489964</v>
+        <v>50.36383344612475</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>25.41473973692769</v>
+        <v>36.0883046222967</v>
       </c>
       <c r="J10">
-        <v>5.664250284342502</v>
+        <v>9.907361756555954</v>
       </c>
       <c r="K10">
-        <v>16.26934161291379</v>
+        <v>17.72259546934967</v>
       </c>
       <c r="L10">
-        <v>7.852308610109532</v>
+        <v>12.04044265439576</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.67316130276934</v>
+        <v>24.2830218786368</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.05511328603113</v>
+        <v>20.1851728933797</v>
       </c>
       <c r="C11">
-        <v>9.915476209989086</v>
+        <v>7.027509599922821</v>
       </c>
       <c r="D11">
-        <v>2.789917033847989</v>
+        <v>4.752656299845672</v>
       </c>
       <c r="E11">
-        <v>6.162972412015868</v>
+        <v>10.60059485629848</v>
       </c>
       <c r="F11">
-        <v>38.88696179719144</v>
+        <v>50.39118621767945</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>25.59062307760394</v>
+        <v>36.07194284718362</v>
       </c>
       <c r="J11">
-        <v>5.639926768995058</v>
+        <v>9.896736805067983</v>
       </c>
       <c r="K11">
-        <v>16.75268261608217</v>
+        <v>17.80572971091559</v>
       </c>
       <c r="L11">
-        <v>7.957228226164919</v>
+        <v>12.04072051087904</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.53957512067806</v>
+        <v>24.24626333430215</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.28312206460113</v>
+        <v>20.23027788076839</v>
       </c>
       <c r="C12">
-        <v>10.05289492786584</v>
+        <v>7.067950097207169</v>
       </c>
       <c r="D12">
-        <v>2.813121424769093</v>
+        <v>4.754122087003588</v>
       </c>
       <c r="E12">
-        <v>6.173486578589037</v>
+        <v>10.59787165453562</v>
       </c>
       <c r="F12">
-        <v>39.09158263920881</v>
+        <v>50.40291318713778</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>25.6601487733132</v>
+        <v>36.06659100947495</v>
       </c>
       <c r="J12">
-        <v>5.630890769648776</v>
+        <v>9.892808656703862</v>
       </c>
       <c r="K12">
-        <v>16.9340048234962</v>
+        <v>17.8376698372222</v>
       </c>
       <c r="L12">
-        <v>7.997334397833246</v>
+        <v>12.04107938619877</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.48966057319786</v>
+        <v>24.23263099853331</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.23413371494835</v>
+        <v>20.22054319497168</v>
       </c>
       <c r="C13">
-        <v>10.0233994659001</v>
+        <v>7.059247976453714</v>
       </c>
       <c r="D13">
-        <v>2.808133079140019</v>
+        <v>4.753803094011258</v>
       </c>
       <c r="E13">
-        <v>6.171207360573714</v>
+        <v>10.59845131265779</v>
       </c>
       <c r="F13">
-        <v>39.04735600657078</v>
+        <v>50.40032675650156</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>25.64504300930475</v>
+        <v>36.0677060817037</v>
       </c>
       <c r="J13">
-        <v>5.632829059342956</v>
+        <v>9.893650421644743</v>
       </c>
       <c r="K13">
-        <v>16.89503055001094</v>
+        <v>17.83077089980878</v>
       </c>
       <c r="L13">
-        <v>7.988680248672535</v>
+        <v>12.04099083089654</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.50038034345095</v>
+        <v>24.23555419521947</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.07392456595121</v>
+        <v>20.18887441082535</v>
       </c>
       <c r="C14">
-        <v>9.926826953914981</v>
+        <v>7.030839967208652</v>
       </c>
       <c r="D14">
-        <v>2.791830174817336</v>
+        <v>4.752775398286557</v>
       </c>
       <c r="E14">
-        <v>6.163830756532147</v>
+        <v>10.60036773742702</v>
       </c>
       <c r="F14">
-        <v>38.90372503323087</v>
+        <v>50.39212358990679</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>25.59628364334011</v>
+        <v>36.0714856314776</v>
       </c>
       <c r="J14">
-        <v>5.639179868660748</v>
+        <v>9.896411726327022</v>
       </c>
       <c r="K14">
-        <v>16.76763461092272</v>
+        <v>17.80834837260824</v>
       </c>
       <c r="L14">
-        <v>7.960520308390423</v>
+        <v>12.04074495796863</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.53545503582883</v>
+        <v>24.24513603833628</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.97544863062583</v>
+        <v>20.16953704035936</v>
       </c>
       <c r="C15">
-        <v>9.867379080317246</v>
+        <v>7.013418091400537</v>
       </c>
       <c r="D15">
-        <v>2.781817599882259</v>
+        <v>4.75215561223987</v>
       </c>
       <c r="E15">
-        <v>6.159355619673411</v>
+        <v>10.60156161683077</v>
       </c>
       <c r="F15">
-        <v>38.81620805581931</v>
+        <v>50.38727707546718</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>25.56680177493622</v>
+        <v>36.07391063843585</v>
       </c>
       <c r="J15">
-        <v>5.643092686278964</v>
+        <v>9.898115503644558</v>
       </c>
       <c r="K15">
-        <v>16.68937700486895</v>
+        <v>17.79467304371473</v>
       </c>
       <c r="L15">
-        <v>7.943320173443889</v>
+        <v>12.04062735707664</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.55702740285808</v>
+        <v>24.25104259700313</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.40589533963497</v>
+        <v>20.05967816775961</v>
       </c>
       <c r="C16">
-        <v>9.522140374326145</v>
+        <v>6.913287715876085</v>
       </c>
       <c r="D16">
-        <v>2.724040467419287</v>
+        <v>4.748753377754018</v>
       </c>
       <c r="E16">
-        <v>6.134368839139524</v>
+        <v>10.60871039126748</v>
       </c>
       <c r="F16">
-        <v>38.32170400837885</v>
+        <v>50.362237692119</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>25.40364689999137</v>
+        <v>36.08949199240327</v>
       </c>
       <c r="J16">
-        <v>5.665864341630098</v>
+        <v>9.908069477043295</v>
       </c>
       <c r="K16">
-        <v>16.2375178634986</v>
+        <v>17.7172278814688</v>
       </c>
       <c r="L16">
-        <v>7.845504865776158</v>
+        <v>12.04046004614721</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.68198432989117</v>
+        <v>24.28546437163719</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.0518727267099</v>
+        <v>19.99316400978027</v>
       </c>
       <c r="C17">
-        <v>9.306215206612094</v>
+        <v>6.851634830275172</v>
       </c>
       <c r="D17">
-        <v>2.688249719089874</v>
+        <v>4.746800402513359</v>
       </c>
       <c r="E17">
-        <v>6.119623062841815</v>
+        <v>10.61337039939147</v>
       </c>
       <c r="F17">
-        <v>38.02455717903923</v>
+        <v>50.34931977350787</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>25.30861699245017</v>
+        <v>36.10055356297338</v>
       </c>
       <c r="J17">
-        <v>5.680145336477279</v>
+        <v>9.914346043261665</v>
       </c>
       <c r="K17">
-        <v>15.95733230043751</v>
+        <v>17.67055879427296</v>
       </c>
       <c r="L17">
-        <v>7.786176445570359</v>
+        <v>12.04081026324036</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.75981601529087</v>
+        <v>24.30709334239482</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.84657177377196</v>
+        <v>19.95524141836927</v>
       </c>
       <c r="C18">
-        <v>9.180480167200916</v>
+        <v>6.816104780693835</v>
       </c>
       <c r="D18">
-        <v>2.667540783921364</v>
+        <v>4.745726718975011</v>
       </c>
       <c r="E18">
-        <v>6.111354025790614</v>
+        <v>10.61615173757421</v>
       </c>
       <c r="F18">
-        <v>37.85591185527666</v>
+        <v>50.34278869305906</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>25.25577492814547</v>
+        <v>36.10746805119955</v>
       </c>
       <c r="J18">
-        <v>5.688473814872226</v>
+        <v>9.9180188001391</v>
       </c>
       <c r="K18">
-        <v>15.79510155538082</v>
+        <v>17.64403197321807</v>
       </c>
       <c r="L18">
-        <v>7.752304651642819</v>
+        <v>12.04117842632718</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.80500857348875</v>
+        <v>24.31972220385935</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.77677484054988</v>
+        <v>19.94245997449477</v>
       </c>
       <c r="C19">
-        <v>9.137641828968949</v>
+        <v>6.804064446268725</v>
       </c>
       <c r="D19">
-        <v>2.660508397124538</v>
+        <v>4.745371738171398</v>
       </c>
       <c r="E19">
-        <v>6.108590570758123</v>
+        <v>10.61711081695998</v>
       </c>
       <c r="F19">
-        <v>37.79919890128618</v>
+        <v>50.34073188226614</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>25.2381914733325</v>
+        <v>36.1099039960228</v>
       </c>
       <c r="J19">
-        <v>5.691313350624597</v>
+        <v>9.919273102879529</v>
       </c>
       <c r="K19">
-        <v>15.73999063855971</v>
+        <v>17.63510536935941</v>
       </c>
       <c r="L19">
-        <v>7.740879902350353</v>
+        <v>12.04133174334085</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.82038262455134</v>
+        <v>24.32403050224852</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.08973309434647</v>
+        <v>20.00021017119133</v>
       </c>
       <c r="C20">
-        <v>9.329359771615012</v>
+        <v>6.858205344400675</v>
       </c>
       <c r="D20">
-        <v>2.692072541305519</v>
+        <v>4.747003171757724</v>
       </c>
       <c r="E20">
-        <v>6.121170758278536</v>
+        <v>10.61286388146067</v>
       </c>
       <c r="F20">
-        <v>38.05595407518539</v>
+        <v>50.35060189353521</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>25.31854411057108</v>
+        <v>36.09931888890932</v>
       </c>
       <c r="J20">
-        <v>5.678613257978747</v>
+        <v>9.913671411600927</v>
       </c>
       <c r="K20">
-        <v>15.98727036866278</v>
+        <v>17.67549424776278</v>
       </c>
       <c r="L20">
-        <v>7.792466014930273</v>
+        <v>12.04075573302329</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.75148650370828</v>
+        <v>24.30477140157507</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.12105346766157</v>
+        <v>20.19816371798312</v>
       </c>
       <c r="C21">
-        <v>9.955253866295868</v>
+        <v>7.039188570256455</v>
       </c>
       <c r="D21">
-        <v>2.796624289795195</v>
+        <v>4.753075236193554</v>
       </c>
       <c r="E21">
-        <v>6.165988420757151</v>
+        <v>10.59980066704343</v>
       </c>
       <c r="F21">
-        <v>38.94581671213449</v>
+        <v>50.39449593822678</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>25.61052504462494</v>
+        <v>36.07035257770094</v>
       </c>
       <c r="J21">
-        <v>5.637309738018407</v>
+        <v>9.895598081045016</v>
       </c>
       <c r="K21">
-        <v>16.80510062545934</v>
+        <v>17.81492213240166</v>
       </c>
       <c r="L21">
-        <v>7.968781442463986</v>
+        <v>12.0408103007917</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.52513434731533</v>
+        <v>24.24231382489119</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.77977089076724</v>
+        <v>20.33028306839981</v>
       </c>
       <c r="C22">
-        <v>10.35107411197299</v>
+        <v>7.156562603624842</v>
       </c>
       <c r="D22">
-        <v>2.863776264977346</v>
+        <v>4.757478978573962</v>
       </c>
       <c r="E22">
-        <v>6.197209979187508</v>
+        <v>10.59215930631872</v>
       </c>
       <c r="F22">
-        <v>39.54798247917454</v>
+        <v>50.43116074817979</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>25.81845134273054</v>
+        <v>36.05634098336421</v>
       </c>
       <c r="J22">
-        <v>5.611334369247065</v>
+        <v>9.884341366441765</v>
       </c>
       <c r="K22">
-        <v>17.32963031637822</v>
+        <v>17.90871106935058</v>
       </c>
       <c r="L22">
-        <v>8.08619902768053</v>
+        <v>12.04232395488613</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.38112705107999</v>
+        <v>24.20316871881339</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.42961441455737</v>
+        <v>20.25952877586863</v>
       </c>
       <c r="C23">
-        <v>10.14100411343647</v>
+        <v>7.094014835495637</v>
       </c>
       <c r="D23">
-        <v>2.828047270573555</v>
+        <v>4.755089111370412</v>
       </c>
       <c r="E23">
-        <v>6.18036780227852</v>
+        <v>10.59615580867614</v>
       </c>
       <c r="F23">
-        <v>39.22468938275737</v>
+        <v>50.41086363071553</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>25.70586703383064</v>
+        <v>36.06336901854225</v>
       </c>
       <c r="J23">
-        <v>5.625104666138953</v>
+        <v>9.890298604907736</v>
       </c>
       <c r="K23">
-        <v>17.05060518462518</v>
+        <v>17.85841769647774</v>
       </c>
       <c r="L23">
-        <v>8.023333657656183</v>
+        <v>12.04138119667442</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.4576196954617</v>
+        <v>24.22390814899576</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.07262192602443</v>
+        <v>19.99702361068591</v>
       </c>
       <c r="C24">
-        <v>9.318901092574182</v>
+        <v>6.85523507632498</v>
       </c>
       <c r="D24">
-        <v>2.690344654645649</v>
+        <v>4.746911346765049</v>
       </c>
       <c r="E24">
-        <v>6.120470396152941</v>
+        <v>10.61309255973064</v>
       </c>
       <c r="F24">
-        <v>38.04175272655622</v>
+        <v>50.35001945691562</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>25.31405048925214</v>
+        <v>36.09987535606204</v>
       </c>
       <c r="J24">
-        <v>5.67930554267088</v>
+        <v>9.913976212330835</v>
       </c>
       <c r="K24">
-        <v>15.97373893977826</v>
+        <v>17.67326198107839</v>
       </c>
       <c r="L24">
-        <v>7.789621761971352</v>
+        <v>12.04077986643759</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.75525088781677</v>
+        <v>24.30582054637216</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.54532204085552</v>
+        <v>19.72679021536619</v>
       </c>
       <c r="C25">
-        <v>8.372997934603712</v>
+        <v>6.59523365364207</v>
       </c>
       <c r="D25">
-        <v>2.537183564659412</v>
+        <v>4.739990692283265</v>
       </c>
       <c r="E25">
-        <v>6.063957850683421</v>
+        <v>10.635225877631</v>
       </c>
       <c r="F25">
-        <v>36.85219147268512</v>
+        <v>50.31876473595959</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>24.96034302283847</v>
+        <v>36.16035954471053</v>
       </c>
       <c r="J25">
-        <v>5.742146026141834</v>
+        <v>9.941912884130531</v>
       </c>
       <c r="K25">
-        <v>14.77153764787802</v>
+        <v>17.48570213262299</v>
       </c>
       <c r="L25">
-        <v>7.547224844222251</v>
+        <v>12.04650844682674</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.09253356034204</v>
+        <v>24.40138365050873</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_171/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_171/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.54007855928535</v>
+        <v>16.36992046743794</v>
       </c>
       <c r="C2">
-        <v>6.403381025117031</v>
+        <v>7.623282450162598</v>
       </c>
       <c r="D2">
-        <v>4.736560110515995</v>
+        <v>2.421035319945525</v>
       </c>
       <c r="E2">
-        <v>10.65486524604365</v>
+        <v>6.029092249905006</v>
       </c>
       <c r="F2">
-        <v>50.32538137073504</v>
+        <v>36.04841993570337</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>36.22301452445404</v>
+        <v>24.75424858557968</v>
       </c>
       <c r="J2">
-        <v>9.964561230390371</v>
+        <v>5.792194099415891</v>
       </c>
       <c r="K2">
-        <v>17.35877020247761</v>
+        <v>13.85499217857284</v>
       </c>
       <c r="L2">
-        <v>12.05623818284223</v>
+        <v>7.377459931689577</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>24.47797805936214</v>
+        <v>16.35438223093844</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.42173598948603</v>
+        <v>15.54472218672546</v>
       </c>
       <c r="C3">
-        <v>6.274015419379142</v>
+        <v>7.093587719175623</v>
       </c>
       <c r="D3">
-        <v>4.73528851569362</v>
+        <v>2.340614712136088</v>
       </c>
       <c r="E3">
-        <v>10.67026975130614</v>
+        <v>6.009562173379758</v>
       </c>
       <c r="F3">
-        <v>50.34835583333911</v>
+        <v>35.5475312126655</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>36.27675806777497</v>
+        <v>24.64601305158058</v>
       </c>
       <c r="J3">
-        <v>9.981215834887967</v>
+        <v>5.828479530188787</v>
       </c>
       <c r="K3">
-        <v>17.28004288095998</v>
+        <v>13.21701232409068</v>
       </c>
       <c r="L3">
-        <v>12.06628163864889</v>
+        <v>7.268051211028445</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.53379105072665</v>
+        <v>16.54011947311534</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.35328567392257</v>
+        <v>15.02537666591209</v>
       </c>
       <c r="C4">
-        <v>6.195227297311513</v>
+        <v>6.787706396088522</v>
       </c>
       <c r="D4">
-        <v>4.735032054012545</v>
+        <v>2.29055747698286</v>
       </c>
       <c r="E4">
-        <v>10.68076458328744</v>
+        <v>5.999556102105598</v>
       </c>
       <c r="F4">
-        <v>50.37157890864938</v>
+        <v>35.26118402275515</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>36.315312857768</v>
+        <v>24.59424675152989</v>
       </c>
       <c r="J4">
-        <v>9.992088785473467</v>
+        <v>5.85193049507277</v>
       </c>
       <c r="K4">
-        <v>17.23540360998681</v>
+        <v>12.81821193100461</v>
       </c>
       <c r="L4">
-        <v>12.07415306756759</v>
+        <v>7.203726922288423</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>24.56999178885823</v>
+        <v>16.65821597035562</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.32647562647824</v>
+        <v>14.81082054826218</v>
       </c>
       <c r="C5">
-        <v>6.163331557302289</v>
+        <v>6.660307996294186</v>
       </c>
       <c r="D5">
-        <v>4.73506010751039</v>
+        <v>2.270015770290375</v>
       </c>
       <c r="E5">
-        <v>10.68530240393084</v>
+        <v>5.995972492415672</v>
       </c>
       <c r="F5">
-        <v>50.3833341516757</v>
+        <v>35.1497583961423</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>36.33242004420122</v>
+        <v>24.57672501981598</v>
       </c>
       <c r="J5">
-        <v>9.996682704421696</v>
+        <v>5.861782111934341</v>
       </c>
       <c r="K5">
-        <v>17.21815753813513</v>
+        <v>12.65413765510246</v>
       </c>
       <c r="L5">
-        <v>12.07778988433805</v>
+        <v>7.178242055559463</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>24.58523027390848</v>
+        <v>16.70735691387286</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.3220899991836</v>
+        <v>14.77502613841303</v>
       </c>
       <c r="C6">
-        <v>6.15804949284908</v>
+        <v>6.638990172783371</v>
       </c>
       <c r="D6">
-        <v>4.735072792810843</v>
+        <v>2.266597061185156</v>
       </c>
       <c r="E6">
-        <v>10.6860716887607</v>
+        <v>5.99540711077552</v>
       </c>
       <c r="F6">
-        <v>50.38542447127992</v>
+        <v>35.13157195922081</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>36.3353449398677</v>
+        <v>24.57402784037708</v>
       </c>
       <c r="J6">
-        <v>9.997455384599574</v>
+        <v>5.863435809622276</v>
       </c>
       <c r="K6">
-        <v>17.21535130294266</v>
+        <v>12.62680610340189</v>
       </c>
       <c r="L6">
-        <v>12.07841970682214</v>
+        <v>7.174054550614295</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>24.58779001148926</v>
+        <v>16.71557799694097</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.35291968374514</v>
+        <v>15.02249451615234</v>
       </c>
       <c r="C7">
-        <v>6.194796220061314</v>
+        <v>6.785999273420337</v>
       </c>
       <c r="D7">
-        <v>4.735031894662532</v>
+        <v>2.290280984706939</v>
       </c>
       <c r="E7">
-        <v>10.68082472413887</v>
+        <v>5.999505779474202</v>
       </c>
       <c r="F7">
-        <v>50.37172816692188</v>
+        <v>35.25966008424115</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>36.31553792168611</v>
+        <v>24.59399613826428</v>
       </c>
       <c r="J7">
-        <v>9.99215007971301</v>
+        <v>5.852062161548686</v>
       </c>
       <c r="K7">
-        <v>17.23516717981099</v>
+        <v>12.81600516906027</v>
       </c>
       <c r="L7">
-        <v>12.0742003767803</v>
+        <v>7.203380264740083</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>24.5701953300658</v>
+        <v>16.65887459352931</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.4984151000871</v>
+        <v>16.08816784341818</v>
       </c>
       <c r="C8">
-        <v>6.358671809577812</v>
+        <v>7.439823229275433</v>
       </c>
       <c r="D8">
-        <v>4.736013288292685</v>
+        <v>2.393462904698176</v>
       </c>
       <c r="E8">
-        <v>10.6599619036836</v>
+        <v>6.021943036489873</v>
       </c>
       <c r="F8">
-        <v>50.33141054328737</v>
+        <v>35.87127525277896</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>36.24039140489471</v>
+        <v>24.713807422251</v>
       </c>
       <c r="J8">
-        <v>9.970169715456919</v>
+        <v>5.804462481063229</v>
       </c>
       <c r="K8">
-        <v>17.33086623704553</v>
+        <v>13.63660761612333</v>
       </c>
       <c r="L8">
-        <v>12.05934766689085</v>
+        <v>7.339150146000526</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>24.49682197577688</v>
+        <v>16.41758067443367</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.81598962260661</v>
+        <v>18.06801860759396</v>
       </c>
       <c r="C9">
-        <v>6.682997188148645</v>
+        <v>8.699748420338969</v>
       </c>
       <c r="D9">
-        <v>4.742065288817394</v>
+        <v>2.589346864390099</v>
       </c>
       <c r="E9">
-        <v>10.62725225823489</v>
+        <v>6.081932129675029</v>
       </c>
       <c r="F9">
-        <v>50.32469321505917</v>
+        <v>37.24155240046068</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>36.1371680047985</v>
+        <v>25.07072091925192</v>
       </c>
       <c r="J9">
-        <v>9.932180642495519</v>
+        <v>5.720392265819807</v>
       </c>
       <c r="K9">
-        <v>17.54719325208677</v>
+        <v>15.18166822781927</v>
       </c>
       <c r="L9">
-        <v>12.04372424308827</v>
+        <v>7.62755048071072</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>24.3682272436387</v>
+        <v>15.97679590954117</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.06731244532049</v>
+        <v>19.44606294542383</v>
       </c>
       <c r="C10">
-        <v>6.920312362171358</v>
+        <v>9.546571750803725</v>
       </c>
       <c r="D10">
-        <v>4.748982927110498</v>
+        <v>2.728107449839799</v>
       </c>
       <c r="E10">
-        <v>10.60819232959844</v>
+        <v>6.136080339989692</v>
       </c>
       <c r="F10">
-        <v>50.36383344612475</v>
+        <v>38.35591884489944</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>36.0883046222967</v>
+        <v>25.41473973692747</v>
       </c>
       <c r="J10">
-        <v>9.907361756555954</v>
+        <v>5.664250284342287</v>
       </c>
       <c r="K10">
-        <v>17.72259546934967</v>
+        <v>16.26934161291377</v>
       </c>
       <c r="L10">
-        <v>12.04044265439576</v>
+        <v>7.852308610109452</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>24.2830218786368</v>
+        <v>15.67316130276915</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.1851728933797</v>
+        <v>20.05511328603112</v>
       </c>
       <c r="C11">
-        <v>7.027509599922821</v>
+        <v>9.915476209989144</v>
       </c>
       <c r="D11">
-        <v>4.752656299845672</v>
+        <v>2.789917033847932</v>
       </c>
       <c r="E11">
-        <v>10.60059485629848</v>
+        <v>6.162972412015873</v>
       </c>
       <c r="F11">
-        <v>50.39118621767945</v>
+        <v>38.88696179719135</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>36.07194284718362</v>
+        <v>25.59062307760386</v>
       </c>
       <c r="J11">
-        <v>9.896736805067983</v>
+        <v>5.639926768995092</v>
       </c>
       <c r="K11">
-        <v>17.80572971091559</v>
+        <v>16.75268261608219</v>
       </c>
       <c r="L11">
-        <v>12.04072051087904</v>
+        <v>7.957228226164936</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>24.24626333430215</v>
+        <v>15.539575120678</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.23027788076839</v>
+        <v>20.28312206460113</v>
       </c>
       <c r="C12">
-        <v>7.067950097207169</v>
+        <v>10.05289492786573</v>
       </c>
       <c r="D12">
-        <v>4.754122087003588</v>
+        <v>2.813121424768986</v>
       </c>
       <c r="E12">
-        <v>10.59787165453562</v>
+        <v>6.17348657858898</v>
       </c>
       <c r="F12">
-        <v>50.40291318713778</v>
+        <v>39.09158263920888</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>36.06659100947495</v>
+        <v>25.66014877331326</v>
       </c>
       <c r="J12">
-        <v>9.892808656703862</v>
+        <v>5.630890769648747</v>
       </c>
       <c r="K12">
-        <v>17.8376698372222</v>
+        <v>16.93400482349621</v>
       </c>
       <c r="L12">
-        <v>12.04107938619877</v>
+        <v>7.997334397833261</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>24.23263099853331</v>
+        <v>15.48966057319794</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.22054319497168</v>
+        <v>20.23413371494836</v>
       </c>
       <c r="C13">
-        <v>7.059247976453714</v>
+        <v>10.02339946590011</v>
       </c>
       <c r="D13">
-        <v>4.753803094011258</v>
+        <v>2.808133079140097</v>
       </c>
       <c r="E13">
-        <v>10.59845131265779</v>
+        <v>6.171207360573815</v>
       </c>
       <c r="F13">
-        <v>50.40032675650156</v>
+        <v>39.04735600657088</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>36.0677060817037</v>
+        <v>25.64504300930486</v>
       </c>
       <c r="J13">
-        <v>9.893650421644743</v>
+        <v>5.632829059342989</v>
       </c>
       <c r="K13">
-        <v>17.83077089980878</v>
+        <v>16.89503055001094</v>
       </c>
       <c r="L13">
-        <v>12.04099083089654</v>
+        <v>7.988680248672571</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>24.23555419521947</v>
+        <v>15.500380343451</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.18887441082535</v>
+        <v>20.07392456595118</v>
       </c>
       <c r="C14">
-        <v>7.030839967208652</v>
+        <v>9.926826953915031</v>
       </c>
       <c r="D14">
-        <v>4.752775398286557</v>
+        <v>2.7918301748173</v>
       </c>
       <c r="E14">
-        <v>10.60036773742702</v>
+        <v>6.163830756532039</v>
       </c>
       <c r="F14">
-        <v>50.39212358990679</v>
+        <v>38.90372503323078</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>36.0714856314776</v>
+        <v>25.59628364334009</v>
       </c>
       <c r="J14">
-        <v>9.896411726327022</v>
+        <v>5.639179868660689</v>
       </c>
       <c r="K14">
-        <v>17.80834837260824</v>
+        <v>16.76763461092271</v>
       </c>
       <c r="L14">
-        <v>12.04074495796863</v>
+        <v>7.960520308390358</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>24.24513603833628</v>
+        <v>15.53545503582882</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.16953704035936</v>
+        <v>19.97544863062583</v>
       </c>
       <c r="C15">
-        <v>7.013418091400537</v>
+        <v>9.867379080317297</v>
       </c>
       <c r="D15">
-        <v>4.75215561223987</v>
+        <v>2.781817599882245</v>
       </c>
       <c r="E15">
-        <v>10.60156161683077</v>
+        <v>6.159355619673457</v>
       </c>
       <c r="F15">
-        <v>50.38727707546718</v>
+        <v>38.81620805581908</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>36.07391063843585</v>
+        <v>25.56680177493603</v>
       </c>
       <c r="J15">
-        <v>9.898115503644558</v>
+        <v>5.643092686278959</v>
       </c>
       <c r="K15">
-        <v>17.79467304371473</v>
+        <v>16.68937700486894</v>
       </c>
       <c r="L15">
-        <v>12.04062735707664</v>
+        <v>7.94332017344382</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>24.25104259700313</v>
+        <v>15.55702740285795</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.05967816775961</v>
+        <v>19.40589533963497</v>
       </c>
       <c r="C16">
-        <v>6.913287715876085</v>
+        <v>9.522140374326158</v>
       </c>
       <c r="D16">
-        <v>4.748753377754018</v>
+        <v>2.724040467419214</v>
       </c>
       <c r="E16">
-        <v>10.60871039126748</v>
+        <v>6.134368839139402</v>
       </c>
       <c r="F16">
-        <v>50.362237692119</v>
+        <v>38.32170400837877</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>36.08949199240327</v>
+        <v>25.40364689999133</v>
       </c>
       <c r="J16">
-        <v>9.908069477043295</v>
+        <v>5.665864341630064</v>
       </c>
       <c r="K16">
-        <v>17.7172278814688</v>
+        <v>16.2375178634986</v>
       </c>
       <c r="L16">
-        <v>12.04046004614721</v>
+        <v>7.845504865776112</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>24.28546437163719</v>
+        <v>15.68198432989118</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.99316400978027</v>
+        <v>19.05187272670987</v>
       </c>
       <c r="C17">
-        <v>6.851634830275172</v>
+        <v>9.306215206612102</v>
       </c>
       <c r="D17">
-        <v>4.746800402513359</v>
+        <v>2.688249719089761</v>
       </c>
       <c r="E17">
-        <v>10.61337039939147</v>
+        <v>6.119623062841828</v>
       </c>
       <c r="F17">
-        <v>50.34931977350787</v>
+        <v>38.02455717903905</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>36.10055356297338</v>
+        <v>25.30861699245008</v>
       </c>
       <c r="J17">
-        <v>9.914346043261665</v>
+        <v>5.680145336477441</v>
       </c>
       <c r="K17">
-        <v>17.67055879427296</v>
+        <v>15.95733230043748</v>
       </c>
       <c r="L17">
-        <v>12.04081026324036</v>
+        <v>7.786176445570391</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>24.30709334239482</v>
+        <v>15.75981601529082</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.95524141836927</v>
+        <v>18.84657177377195</v>
       </c>
       <c r="C18">
-        <v>6.816104780693835</v>
+        <v>9.180480167200866</v>
       </c>
       <c r="D18">
-        <v>4.745726718975011</v>
+        <v>2.667540783921263</v>
       </c>
       <c r="E18">
-        <v>10.61615173757421</v>
+        <v>6.111354025790511</v>
       </c>
       <c r="F18">
-        <v>50.34278869305906</v>
+        <v>37.85591185527672</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>36.10746805119955</v>
+        <v>25.25577492814558</v>
       </c>
       <c r="J18">
-        <v>9.9180188001391</v>
+        <v>5.68847381487226</v>
       </c>
       <c r="K18">
-        <v>17.64403197321807</v>
+        <v>15.79510155538084</v>
       </c>
       <c r="L18">
-        <v>12.04117842632718</v>
+        <v>7.752304651642795</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>24.31972220385935</v>
+        <v>15.80500857348884</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.94245997449477</v>
+        <v>18.77677484054988</v>
       </c>
       <c r="C19">
-        <v>6.804064446268725</v>
+        <v>9.137641828968844</v>
       </c>
       <c r="D19">
-        <v>4.745371738171398</v>
+        <v>2.660508397124525</v>
       </c>
       <c r="E19">
-        <v>10.61711081695998</v>
+        <v>6.108590570758021</v>
       </c>
       <c r="F19">
-        <v>50.34073188226614</v>
+        <v>37.7991989012863</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>36.1099039960228</v>
+        <v>25.23819147333259</v>
       </c>
       <c r="J19">
-        <v>9.919273102879529</v>
+        <v>5.691313350624541</v>
       </c>
       <c r="K19">
-        <v>17.63510536935941</v>
+        <v>15.73999063855971</v>
       </c>
       <c r="L19">
-        <v>12.04133174334085</v>
+        <v>7.740879902350326</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>24.32403050224852</v>
+        <v>15.82038262455142</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.00021017119133</v>
+        <v>19.08973309434649</v>
       </c>
       <c r="C20">
-        <v>6.858205344400675</v>
+        <v>9.329359771614989</v>
       </c>
       <c r="D20">
-        <v>4.747003171757724</v>
+        <v>2.692072541305393</v>
       </c>
       <c r="E20">
-        <v>10.61286388146067</v>
+        <v>6.121170758278542</v>
       </c>
       <c r="F20">
-        <v>50.35060189353521</v>
+        <v>38.05595407518557</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>36.09931888890932</v>
+        <v>25.31854411057126</v>
       </c>
       <c r="J20">
-        <v>9.913671411600927</v>
+        <v>5.678613257978752</v>
       </c>
       <c r="K20">
-        <v>17.67549424776278</v>
+        <v>15.98727036866278</v>
       </c>
       <c r="L20">
-        <v>12.04075573302329</v>
+        <v>7.792466014930234</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>24.30477140157507</v>
+        <v>15.75148650370847</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.19816371798312</v>
+        <v>20.12105346766159</v>
       </c>
       <c r="C21">
-        <v>7.039188570256455</v>
+        <v>9.955253866296031</v>
       </c>
       <c r="D21">
-        <v>4.753075236193554</v>
+        <v>2.796624289795359</v>
       </c>
       <c r="E21">
-        <v>10.59980066704343</v>
+        <v>6.165988420757301</v>
       </c>
       <c r="F21">
-        <v>50.39449593822678</v>
+        <v>38.94581671213474</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>36.07035257770094</v>
+        <v>25.61052504462514</v>
       </c>
       <c r="J21">
-        <v>9.895598081045016</v>
+        <v>5.63730973801841</v>
       </c>
       <c r="K21">
-        <v>17.81492213240166</v>
+        <v>16.80510062545933</v>
       </c>
       <c r="L21">
-        <v>12.0408103007917</v>
+        <v>7.968781442464032</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>24.24231382489119</v>
+        <v>15.52513434731544</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.33028306839981</v>
+        <v>20.77977089076726</v>
       </c>
       <c r="C22">
-        <v>7.156562603624842</v>
+        <v>10.35107411197312</v>
       </c>
       <c r="D22">
-        <v>4.757478978573962</v>
+        <v>2.863776264977394</v>
       </c>
       <c r="E22">
-        <v>10.59215930631872</v>
+        <v>6.197209979187564</v>
       </c>
       <c r="F22">
-        <v>50.43116074817979</v>
+        <v>39.54798247917456</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>36.05634098336421</v>
+        <v>25.8184513427306</v>
       </c>
       <c r="J22">
-        <v>9.884341366441765</v>
+        <v>5.6113343692471</v>
       </c>
       <c r="K22">
-        <v>17.90871106935058</v>
+        <v>17.32963031637822</v>
       </c>
       <c r="L22">
-        <v>12.04232395488613</v>
+        <v>8.086199027680486</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>24.20316871881339</v>
+        <v>15.38112705107997</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.25952877586863</v>
+        <v>20.42961441455735</v>
       </c>
       <c r="C23">
-        <v>7.094014835495637</v>
+        <v>10.14100411343654</v>
       </c>
       <c r="D23">
-        <v>4.755089111370412</v>
+        <v>2.828047270573569</v>
       </c>
       <c r="E23">
-        <v>10.59615580867614</v>
+        <v>6.180367802278472</v>
       </c>
       <c r="F23">
-        <v>50.41086363071553</v>
+        <v>39.22468938275735</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>36.06336901854225</v>
+        <v>25.70586703383065</v>
       </c>
       <c r="J23">
-        <v>9.890298604907736</v>
+        <v>5.625104666138923</v>
       </c>
       <c r="K23">
-        <v>17.85841769647774</v>
+        <v>17.05060518462517</v>
       </c>
       <c r="L23">
-        <v>12.04138119667442</v>
+        <v>8.023333657656119</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>24.22390814899576</v>
+        <v>15.45761969546168</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.99702361068591</v>
+        <v>19.07262192602448</v>
       </c>
       <c r="C24">
-        <v>6.85523507632498</v>
+        <v>9.318901092574173</v>
       </c>
       <c r="D24">
-        <v>4.746911346765049</v>
+        <v>2.690344654645597</v>
       </c>
       <c r="E24">
-        <v>10.61309255973064</v>
+        <v>6.120470396153037</v>
       </c>
       <c r="F24">
-        <v>50.35001945691562</v>
+        <v>38.0417527265564</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>36.09987535606204</v>
+        <v>25.31405048925236</v>
       </c>
       <c r="J24">
-        <v>9.913976212330835</v>
+        <v>5.679305542670972</v>
       </c>
       <c r="K24">
-        <v>17.67326198107839</v>
+        <v>15.97373893977827</v>
       </c>
       <c r="L24">
-        <v>12.04077986643759</v>
+        <v>7.78962176197136</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>24.30582054637216</v>
+        <v>15.75525088781689</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.72679021536619</v>
+        <v>17.5453220408556</v>
       </c>
       <c r="C25">
-        <v>6.59523365364207</v>
+        <v>8.37299793460366</v>
       </c>
       <c r="D25">
-        <v>4.739990692283265</v>
+        <v>2.537183564659392</v>
       </c>
       <c r="E25">
-        <v>10.635225877631</v>
+        <v>6.063957850683424</v>
       </c>
       <c r="F25">
-        <v>50.31876473595959</v>
+        <v>36.8521914726854</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>36.16035954471053</v>
+        <v>24.96034302283866</v>
       </c>
       <c r="J25">
-        <v>9.941912884130531</v>
+        <v>5.742146026141832</v>
       </c>
       <c r="K25">
-        <v>17.48570213262299</v>
+        <v>14.77153764787807</v>
       </c>
       <c r="L25">
-        <v>12.04650844682674</v>
+        <v>7.547224844222272</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>24.40138365050873</v>
+        <v>16.09253356034211</v>
       </c>
       <c r="O25">
         <v>0</v>
